--- a/河北/导出模板/新建 XLSX 工作表.xlsx
+++ b/河北/导出模板/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,14 +81,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,62 +103,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +160,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,7 +220,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,49 +256,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,121 +394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,21 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,6 +479,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,148 +552,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,52 +710,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -783,7 +776,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1062,329 +1055,329 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AC27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1">
         <v>3</v>
       </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
       <c r="H1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+      <c r="Q1">
+        <v>13</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>18</v>
+      </c>
+      <c r="W1">
+        <v>19</v>
+      </c>
+      <c r="X1">
+        <v>20</v>
+      </c>
+      <c r="Y1">
+        <v>21</v>
+      </c>
+      <c r="Z1">
+        <v>22</v>
+      </c>
+      <c r="AA1">
+        <v>23</v>
+      </c>
+      <c r="AB1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="L1">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="M1">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X1">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y1">
-        <v>20</v>
-      </c>
-      <c r="Z1">
-        <v>21</v>
-      </c>
-      <c r="AA1">
-        <v>22</v>
-      </c>
-      <c r="AB1">
-        <v>23</v>
-      </c>
-      <c r="AC1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
